--- a/report/reliability/comb/Centro de Educação - CEDU-Educação a Distância.xlsx
+++ b/report/reliability/comb/Centro de Educação - CEDU-Educação a Distância.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="482">
+  <fonts count="481">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2232,11 +2232,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3142,7 +3137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="804">
+  <cellXfs count="803">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3797,6 +3792,7 @@
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3824,14 +3820,13 @@
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3840,6 +3835,7 @@
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3855,14 +3851,13 @@
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3870,6 +3865,7 @@
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3885,20 +3881,20 @@
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3914,19 +3910,19 @@
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3954,14 +3950,13 @@
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3970,6 +3965,7 @@
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3985,14 +3981,13 @@
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4000,6 +3995,7 @@
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4015,20 +4011,20 @@
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4044,21 +4040,19 @@
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4134,31 +4128,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8311325619834711</v>
+        <v>0.8216519063427116</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8404869397623618</v>
+        <v>0.8431520454927623</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.919077893850593</v>
+        <v>0.930678207173366</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.30511639351740394</v>
+        <v>0.30937641278812184</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>5.269079149445369</v>
+        <v>5.375601155537263</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.027820499071950233</v>
+        <v>0.027778364286557056</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.892857142857143</v>
+        <v>2.393939393939394</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8568882767298153</v>
+        <v>0.8034825018514711</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.23384853887481447</v>
+        <v>0.2303990303646018</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4202,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8248626906008093</v>
+        <v>0.8179078314510698</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8306553384799632</v>
+        <v>0.841334862266555</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9148210583001001</v>
+        <v>0.9285272378240692</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.30839866429584667</v>
+        <v>0.32526024559736066</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>4.905116766150198</v>
+        <v>5.302581740923982</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.029078427724591977</v>
+        <v>0.02857559633904653</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03671806106379975</v>
+        <v>0.057237243880793424</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.23312919757436953</v>
+        <v>0.22985795305335324</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4231,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8194103665915465</v>
+        <v>0.8148000958013828</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8254161706125278</v>
+        <v>0.8396727225860973</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.909592546176786</v>
+        <v>0.9232918000516774</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3006062565497117</v>
+        <v>0.3225450405840775</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>4.727907352636849</v>
+        <v>5.237241822664946</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.029627224901283618</v>
+        <v>0.028753949539731993</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.03383935198273995</v>
+        <v>0.054587279393902406</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2345678801752594</v>
+        <v>0.23105961377175374</v>
       </c>
     </row>
     <row r="13">
@@ -4266,25 +4260,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.8194904842907199</v>
+        <v>0.8128654373061517</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8264074997118622</v>
+        <v>0.8291492814249249</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9106127958180479</v>
+        <v>0.919225456413672</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.30205780452370573</v>
+        <v>0.3061277761369863</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>4.760617528638325</v>
+        <v>4.8530628863617</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.029729546503551373</v>
+        <v>0.029849376262166334</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03678035171652121</v>
+        <v>0.044949286836231526</v>
       </c>
       <c r="I13" t="n" s="65">
         <v>0.23105961377175374</v>
@@ -4295,25 +4289,25 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8156799128852295</v>
+        <v>0.7955178357023899</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8214930782820422</v>
+        <v>0.823550236223408</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9059532966553887</v>
+        <v>0.9169039091561311</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2949632537729035</v>
+        <v>0.29790231142644247</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>4.602023665950647</v>
+        <v>4.667335442092899</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.030065475219300822</v>
+        <v>0.0317601993355343</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.0349694005825046</v>
+        <v>0.04628124869078427</v>
       </c>
       <c r="I14" t="n" s="65">
         <v>0.23105961377175374</v>
@@ -4324,28 +4318,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8138026938062061</v>
+        <v>0.7932954150213801</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8284940108107308</v>
+        <v>0.8205390727158421</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8958228772294099</v>
+        <v>0.9134447866070498</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.3051476003474752</v>
+        <v>0.2936149538649145</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>4.830700168123151</v>
+        <v>4.5722435804458055</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.030648210402669015</v>
+        <v>0.03269600270072809</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.031582232315552766</v>
+        <v>0.04609186982793292</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.26159892746512725</v>
+        <v>0.21236230110159118</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4347,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8126863915452581</v>
+        <v>0.8145297245008212</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8260947798825646</v>
+        <v>0.8275704776070424</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8946049613107937</v>
+        <v>0.9170969656646973</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.301598771840997</v>
+        <v>0.30377415426120324</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>4.750258671503454</v>
+        <v>4.799470914969269</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.031157244442263154</v>
+        <v>0.029487582273482554</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03208130813090925</v>
+        <v>0.04938843223394781</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.23312919757436953</v>
+        <v>0.22875415037404512</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4376,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8102860148064243</v>
+        <v>0.7962256945099296</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8246127884573726</v>
+        <v>0.8223807337860443</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.89388142530482</v>
+        <v>0.9121962610776484</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2994375751285494</v>
+        <v>0.2962261031092314</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.70166998610929</v>
+        <v>4.6300198808130695</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.031252349068678305</v>
+        <v>0.031176332078024123</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.034123855109095415</v>
+        <v>0.0477369970567959</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.23032569902730174</v>
+        <v>0.22875415037404512</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4405,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8161753064404577</v>
+        <v>0.8059631920786728</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8259138491601278</v>
+        <v>0.8259902180672172</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.894704619588507</v>
+        <v>0.9170875754099999</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.30133366703472975</v>
+        <v>0.3014455222149112</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.7442823290395975</v>
+        <v>4.746803362964291</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.03026406562129482</v>
+        <v>0.02946099552778337</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03269374508151982</v>
+        <v>0.04819210554196159</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.23105961377175374</v>
+        <v>0.22985795305335324</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4434,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8270047236322617</v>
+        <v>0.816307560609242</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8375476234061762</v>
+        <v>0.8404532098971731</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9156395396949257</v>
+        <v>0.9292489285730071</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.3191236575092556</v>
+        <v>0.32381568254579574</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>5.155650172482722</v>
+        <v>5.267753800346004</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.02873376439260886</v>
+        <v>0.02855263004489473</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.03802396192854295</v>
+        <v>0.058184754304441</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.26159892746512725</v>
+        <v>0.2345678801752594</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4463,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.8277889348296908</v>
+        <v>0.8185913731516524</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.836857378424455</v>
+        <v>0.8417135205834916</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9161693853291101</v>
+        <v>0.9299234458589216</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.3180242612974817</v>
+        <v>0.32588369413876983</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>5.129606048637256</v>
+        <v>5.317658992014352</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.028378116158628622</v>
+        <v>0.027969011240981275</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.03825269646795529</v>
+        <v>0.05755839864499042</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.26572989802298963</v>
+        <v>0.23105961377175374</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4492,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8130207023719722</v>
+        <v>0.800837244425322</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8257617756600333</v>
+        <v>0.8275278057901654</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9045012393408748</v>
+        <v>0.9188175071974418</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.3011111152165116</v>
+        <v>0.30371091927012356</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>4.73926877290048</v>
+        <v>4.798036052022223</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.030918013425014605</v>
+        <v>0.030969441771253506</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03541192759022355</v>
+        <v>0.05561904207675901</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.23032569902730174</v>
+        <v>0.22295583043639247</v>
       </c>
     </row>
     <row r="22">
@@ -4527,28 +4521,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8190477775066368</v>
+        <v>0.8070008304409855</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8314414406223258</v>
+        <v>0.8331460829474077</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9084847281235201</v>
+        <v>0.921636740322687</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.309594094691679</v>
+        <v>0.3122105503076457</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>4.932656304681558</v>
+        <v>4.993266551152042</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.02994236014035786</v>
+        <v>0.029973453311164838</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.03440112720604275</v>
+        <v>0.054499638264180264</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.2345678801752594</v>
+        <v>0.23094010767585033</v>
       </c>
     </row>
     <row r="23">
@@ -4598,16 +4592,16 @@
         <v>77.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.4983353034415569</v>
+        <v>0.4289232454647767</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.5775459232084655</v>
+        <v>0.48556228705627924</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.5269605901857334</v>
+        <v>0.42637589984859237</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.43362572656868004</v>
+        <v>0.35443808626394</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.675324675324675</v>
@@ -4624,16 +4618,16 @@
         <v>77.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5761740442850282</v>
+        <v>0.48529147538789047</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6368228700310747</v>
+        <v>0.5061066850369208</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6060085109293293</v>
+        <v>0.46794719583106925</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5012005020943713</v>
+        <v>0.394771380441266</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.038961038961039</v>
@@ -4650,22 +4644,22 @@
         <v>77.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.572817966441175</v>
+        <v>0.649273735759684</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6257809257606934</v>
+        <v>0.6303267026431216</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5870954527481649</v>
+        <v>0.6317248138172871</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.49444529331944825</v>
+        <v>0.6176383297719613</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.5194805194805197</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0955699022881775</v>
+        <v>0.5011947448335864</v>
       </c>
     </row>
     <row r="30">
@@ -4676,22 +4670,22 @@
         <v>77.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6205071422699259</v>
+        <v>0.7243919803006015</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6797492653658935</v>
+        <v>0.6925640732145614</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.656343862702357</v>
+        <v>0.6997162953539547</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5389709224111994</v>
+        <v>0.6116569992280422</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.727272727272727</v>
+        <v>1.7402597402597402</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2208319384786628</v>
+        <v>1.8453540339443455</v>
       </c>
     </row>
     <row r="31">
@@ -4702,22 +4696,22 @@
         <v>77.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6707428250637858</v>
+        <v>0.7604506943991037</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6022768088426393</v>
+        <v>0.7250040472122664</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6090763247993964</v>
+        <v>0.7378232292711807</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5522231824335997</v>
+        <v>0.6428548934824616</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.7402597402597402</v>
+        <v>2.0259740259740258</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.8453540339443455</v>
+        <v>2.077283309200961</v>
       </c>
     </row>
     <row r="32">
@@ -4728,22 +4722,22 @@
         <v>77.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7062953455097901</v>
+        <v>0.6332433931649064</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6292727933334937</v>
+        <v>0.6481352085480087</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6377772014315783</v>
+        <v>0.6496063428181441</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5801879249733296</v>
+        <v>0.6036970699931546</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.0259740259740258</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.077283309200961</v>
+        <v>0.45471630418672376</v>
       </c>
     </row>
     <row r="33">
@@ -4754,16 +4748,16 @@
         <v>77.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.6871502892516864</v>
+        <v>0.709374013306798</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.6457130447641881</v>
+        <v>0.7052469795140036</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.6512737356966481</v>
+        <v>0.7179272592763154</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.5825735762854221</v>
+        <v>0.6023761298742706</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>2.4025974025974026</v>
@@ -4780,16 +4774,16 @@
         <v>77.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6728113005021433</v>
+        <v>0.6769585386891018</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.6312894490342064</v>
+        <v>0.665754630755708</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.6364819538165509</v>
+        <v>0.6688679531747315</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.5426832229414968</v>
+        <v>0.5375396019182862</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>2.5584415584415585</v>
@@ -4806,16 +4800,16 @@
         <v>77.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4554386846600057</v>
+        <v>0.4633394904102573</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4959607606892923</v>
+        <v>0.49649246658021645</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4315601852497326</v>
+        <v>0.42946094990630507</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.36828650406080066</v>
+        <v>0.37072033871469945</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>3.324675324675325</v>
@@ -4832,16 +4826,16 @@
         <v>77.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4610978465634614</v>
+        <v>0.4534139440876385</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5043238819356903</v>
+        <v>0.4808450097632205</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.43753548045512985</v>
+        <v>0.410791021333004</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.3577230325048824</v>
+        <v>0.34180909246165925</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>3.0</v>
@@ -4858,16 +4852,16 @@
         <v>77.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6497895501701746</v>
+        <v>0.657708698363459</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6329824036027517</v>
+        <v>0.6486136714326483</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6129285758027024</v>
+        <v>0.6220866703487813</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5648060873053506</v>
+        <v>0.5677726734884273</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>2.4285714285714284</v>
@@ -4884,16 +4878,16 @@
         <v>77.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5771193415727324</v>
+        <v>0.5912165810889766</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5684522686779989</v>
+        <v>0.584301841618986</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5384176690349617</v>
+        <v>0.5501529095904323</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4869404696624216</v>
+        <v>0.49648218635173913</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>2.272727272727273</v>
@@ -4998,22 +4992,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.012987012987012988</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.07792207792207792</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.35064935064935066</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4025974025974026</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.15584415584415584</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5024,22 +5018,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.1038961038961039</v>
+      </c>
+      <c r="D46" t="n" s="111">
         <v>0.012987012987012988</v>
       </c>
-      <c r="C46" t="n" s="110">
-        <v>0.025974025974025976</v>
-      </c>
-      <c r="D46" t="n" s="111">
-        <v>0.07792207792207792</v>
-      </c>
       <c r="E46" t="n" s="112">
-        <v>0.38961038961038963</v>
+        <v>0.15584415584415584</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.09090909090909091</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.4025974025974026</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5053,19 +5047,19 @@
         <v>0.45454545454545453</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.1038961038961039</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.012987012987012988</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.15584415584415584</v>
+        <v>0.16883116883116883</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.22077922077922077</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.05194805194805195</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5076,22 +5070,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.45454545454545453</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.03896103896103896</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.03896103896103896</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.16883116883116883</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.09090909090909091</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.2077922077922078</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5329,31 +5323,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8345304677814687</v>
+        <v>0.853890048198556</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8375105696836546</v>
+        <v>0.962286259327618</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8124975700582542</v>
+        <v>0.947371271196036</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5630443181745441</v>
+        <v>0.8947941874465872</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.154246451926949</v>
+        <v>25.515534714176617</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.02949460983930676</v>
+        <v>0.008098019457633726</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.74025974025974</v>
+        <v>1.4372294372294372</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.8673932120318207</v>
+        <v>1.4339857147124027</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5424579064195064</v>
+        <v>0.8961610929837646</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5394,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8214706240610661</v>
+        <v>0.9557620302315908</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8208455423871028</v>
+        <v>0.9592515948719078</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7683306768442512</v>
+        <v>0.9216940330106449</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6043143302572318</v>
+        <v>0.9216940330106449</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.581775710882514</v>
+        <v>23.540837778963635</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.03466234761731483</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.009181498945264717</v>
-      </c>
+        <v>0.009641725828985427</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6582268013953826</v>
+        <v>0.9216940330106448</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7817830393814932</v>
+        <v>0.5802029647733913</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.787245209753575</v>
+        <v>0.9452372968728957</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7226280985417393</v>
+        <v>0.8961610929837645</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5522552920909841</v>
+        <v>0.8961610929837645</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.7002466964045415</v>
+        <v>17.26060334675223</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.04011223174033301</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.008778261929227853</v>
-      </c>
+        <v>0.021212206645501833</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5181319694410138</v>
+        <v>0.8961610929837646</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7908330479870861</v>
+        <v>0.6095262850087724</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7986775097180032</v>
+        <v>0.9284915072472835</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7369656696355051</v>
+        <v>0.8665274363453521</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5694081686991536</v>
+        <v>0.8665274363453519</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.9671549293835913</v>
+        <v>12.984352927953603</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.038845037714257735</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.00816164408730885</v>
-      </c>
+        <v>0.025001948161049163</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.566783843397999</v>
+        <v>0.866527436345352</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7594086021505375</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7691479450043139</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.6913652708343263</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5261994816508068</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.3317786364028112</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.04678038416264905</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.0013847603377600023</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5181319694410138</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5484,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>77.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9209355168092854</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.95499530146835</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9151149955181404</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.8999512905182562</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.5011947448335864</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>77.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7457122830721702</v>
+        <v>0.9749684903239738</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.782178560899561</v>
+        <v>0.9638214277216288</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.6635579840997864</v>
+        <v>0.9397527980273603</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6042685763091897</v>
+        <v>0.9261552345632073</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.675324675324675</v>
+        <v>1.7402597402597402</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.83416454330316</v>
+        <v>1.8453540339443455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>77.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8293506819390942</v>
+        <v>0.9826425972579483</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8297976695091658</v>
+        <v>0.9740650735595774</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7574700494407564</v>
+        <v>0.9608608252153151</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6845964701693458</v>
+        <v>0.9374994756215409</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.038961038961039</v>
+        <v>2.0259740259740258</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.0568269096134508</v>
+        <v>2.077283309200961</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>77.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8223198466116833</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8141077005250452</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7294286386205079</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6649167519277174</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.5194805194805197</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0955699022881775</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>77.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8765638219089241</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8536312728750176</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8058342412059171</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7369340474577387</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.727272727272727</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2208319384786628</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.1038961038961039</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.15584415584415584</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.0</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="C27" t="n" s="225">
         <v>0.03896103896103896</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.3246753246753247</v>
+        <v>0.16883116883116883</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5194805194805194</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.11688311688311688</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.33766233766233766</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.11688311688311688</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4935064935064935</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.07792207792207792</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.35064935064935066</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4025974025974026</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.15584415584415584</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.025974025974025976</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.07792207792207792</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.38961038961038963</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4025974025974026</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5876,28 +5783,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.9374247894103491</v>
+        <v>0.8358526516354398</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.9435889103130617</v>
+        <v>0.9512335662843875</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.8932023901724558</v>
+        <v>0.9365465226283362</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.8932023901724557</v>
+        <v>0.8667016674505149</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>16.72701086877862</v>
+        <v>19.505907933141575</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.013453077475534656</v>
+        <v>0.011296824049425546</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.4805194805194803</v>
+        <v>1.8917748917748918</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.8072251892013727</v>
+        <v>1.3392866636284324</v>
       </c>
       <c r="I6" t="n" s="269">
         <v>0.8932023901724556</v>
@@ -5947,53 +5854,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="283">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.8932023901724556</v>
+        <v>0.9374247894103491</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.8932023901724556</v>
+        <v>0.9435889103130617</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.797810509809788</v>
+        <v>0.8932023901724558</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.8932023901724556</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.8932023901724556</v>
-      </c>
+        <v>0.8932023901724557</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>16.72701086877862</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.013453077475534656</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.8932023901724556</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="283">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n" s="288">
+        <v>0.5196331155206522</v>
+      </c>
+      <c r="C12" t="n" s="289">
+        <v>0.8968784110270982</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.8130367676532981</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.8130367676532981</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>8.69729045062309</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.029390651394065943</v>
+      </c>
+      <c r="H12" s="294"/>
+      <c r="I12" t="n" s="295">
+        <v>0.8130367676532982</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="283">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.797810509809788</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.8932023901724556</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.797810509809788</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.8932023901724556</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="288">
+        <v>0.6147107687660474</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.9439589896079548</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.8938658445257909</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.8938658445257908</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>16.844075133626546</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.021809652277099856</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.8938658445257908</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +5939,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="299">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>77.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9684486676130866</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9729343220825484</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.9195142467581031</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.8932023901724557</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.4025974025974026</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.7111072151014126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>77.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9770805535571251</v>
+        <v>0.899216929954949</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9729343220825484</v>
+        <v>0.9452792916422086</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.9195142467581031</v>
+        <v>0.9046276817318074</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.8932023901724557</v>
+        <v>0.8737736283992398</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.45471630418672376</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>77.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9723746061938875</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9732739828911717</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.9626689315632322</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.9196245491122709</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.4025974025974026</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.7111072151014126</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>77.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9709920852244843</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.9450476062988438</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.9039626969692978</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.8922194948527814</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.5584415584415585</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>2.0032441221645985</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="338">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="334">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="339">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="339">
         <v>0.2857142857142857</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="340">
         <v>0.05194805194805195</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.35064935064935066</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2597402597402597</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.05194805194805195</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+    <row r="27">
+      <c r="A27" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
+      <c r="B27" t="n" s="339">
         <v>0.2857142857142857</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.09090909090909091</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.05194805194805195</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.18181818181818182</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.12987012987012986</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.2597402597402597</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6249,31 +6243,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8504288567735871</v>
+        <v>0.7107438016528924</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8513498627237177</v>
+        <v>0.7234997294442012</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7411742140583093</v>
+        <v>0.566783843397999</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7411742140583093</v>
+        <v>0.566783843397999</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>5.727205358319932</v>
+        <v>2.6166329891463755</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.03394854103459689</v>
+        <v>0.06332110110075821</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.3506493506493507</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2059745323992648</v>
+        <v>0.8384554363810831</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7411742140583094</v>
+        <v>0.566783843397999</v>
       </c>
     </row>
     <row r="7">
@@ -6320,48 +6314,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7411742140583093</v>
+        <v>0.566783843397999</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7411742140583093</v>
+        <v>0.566783843397999</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.5493392155849526</v>
+        <v>0.3212439251370074</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7411742140583093</v>
+        <v>0.566783843397999</v>
       </c>
       <c r="F11" s="407"/>
       <c r="G11" s="408"/>
       <c r="H11" t="n" s="409">
-        <v>0.7411742140583093</v>
+        <v>0.566783843397999</v>
       </c>
       <c r="I11" t="n" s="410">
-        <v>0.7411742140583093</v>
+        <v>0.566783843397999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.5493392155849526</v>
+        <v>0.3212439251370074</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7411742140583093</v>
+        <v>0.566783843397999</v>
       </c>
       <c r="D12" s="405"/>
       <c r="E12" s="406"/>
       <c r="F12" s="407"/>
       <c r="G12" s="408"/>
       <c r="H12" t="n" s="409">
-        <v>0.5493392155849526</v>
+        <v>0.3212439251370074</v>
       </c>
       <c r="I12" t="n" s="410">
-        <v>0.7411742140583093</v>
+        <v>0.566783843397999</v>
       </c>
     </row>
     <row r="13">
@@ -6405,54 +6399,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="424">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n" s="429">
         <v>77.0</v>
       </c>
       <c r="C17" t="n" s="430">
-        <v>0.9372437785761707</v>
+        <v>0.8546411047950573</v>
       </c>
       <c r="D17" t="n" s="431">
-        <v>0.9330525746329382</v>
+        <v>0.8850943010205181</v>
       </c>
       <c r="E17" t="n" s="432">
-        <v>0.8032787279777992</v>
+        <v>0.6663436682879963</v>
       </c>
       <c r="F17" t="n" s="433">
-        <v>0.7411742140583095</v>
+        <v>0.566783843397999</v>
       </c>
       <c r="G17" t="n" s="434">
-        <v>2.4285714285714284</v>
+        <v>3.675324675324675</v>
       </c>
       <c r="H17" t="n" s="435">
-        <v>1.3320796110689346</v>
+        <v>0.83416454330316</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>77.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9287307375911507</v>
+        <v>0.9121640990815473</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9330525746329382</v>
+        <v>0.8850943010205181</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8032787279777991</v>
+        <v>0.6663436682879963</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7411742140583092</v>
+        <v>0.566783843397999</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.272727272727273</v>
+        <v>4.038961038961039</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2527481751855087</v>
+        <v>1.0568269096134508</v>
       </c>
     </row>
     <row r="19">
@@ -6473,19 +6467,19 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="453">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="453">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="453">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="453">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="453">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="453">
         <v>43</v>
@@ -6493,22 +6487,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="449">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B23" t="n" s="454">
-        <v>0.15584415584415584</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="C23" t="n" s="455">
-        <v>0.03896103896103896</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n" s="456">
-        <v>0.2727272727272727</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="E23" t="n" s="457">
-        <v>0.2857142857142857</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="F23" t="n" s="458">
-        <v>0.24675324675324675</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="G23" t="n" s="459">
         <v>0.0</v>
@@ -6516,22 +6510,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="449">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B24" t="n" s="454">
-        <v>0.14285714285714285</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="C24" t="n" s="455">
-        <v>0.06493506493506493</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="D24" t="n" s="456">
-        <v>0.35064935064935066</v>
+        <v>0.33766233766233766</v>
       </c>
       <c r="E24" t="n" s="457">
-        <v>0.2597402597402597</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="F24" t="n" s="458">
-        <v>0.18181818181818182</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="G24" t="n" s="459">
         <v>0.0</v>
@@ -6613,31 +6607,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9557620302315908</v>
+        <v>0.7195081967213115</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9592515948719078</v>
+        <v>0.7257401947780515</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9216940330106449</v>
+        <v>0.5695386386700343</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.9216940330106449</v>
+        <v>0.5695386386700343</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>23.540837778963635</v>
+        <v>2.646177751751616</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.009641725828985427</v>
+        <v>0.0626729837022672</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>1.8831168831168832</v>
+        <v>3.1623376623376624</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>1.9226764923026742</v>
+        <v>1.020969477485797</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9216940330106448</v>
+        <v>0.5695386386700343</v>
       </c>
     </row>
     <row r="7">
@@ -6684,48 +6678,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9216940330106449</v>
+        <v>0.5695386386700343</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9216940330106449</v>
+        <v>0.5695386386700343</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.8495198904874278</v>
+        <v>0.3243742609381157</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9216940330106449</v>
+        <v>0.5695386386700343</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9216940330106449</v>
+        <v>0.5695386386700343</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9216940330106449</v>
+        <v>0.5695386386700343</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.8495198904874278</v>
+        <v>0.3243742609381157</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9216940330106449</v>
+        <v>0.5695386386700343</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.8495198904874278</v>
+        <v>0.3243742609381157</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9216940330106449</v>
+        <v>0.5695386386700343</v>
       </c>
     </row>
     <row r="13">
@@ -6769,54 +6763,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>77.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9777967536297233</v>
+        <v>0.8651083636966281</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9802280431130924</v>
+        <v>0.8858720671378104</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9410669273484412</v>
+        <v>0.6685480160796792</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9216940330106448</v>
+        <v>0.5695386386700343</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>1.7402597402597402</v>
+        <v>3.324675324675325</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>1.8453540339443455</v>
+        <v>1.0568269096134508</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>77.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9825197130679902</v>
+        <v>0.9049977395472976</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9802280431130924</v>
+        <v>0.8858720671378104</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9410669273484412</v>
+        <v>0.6685480160796794</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9216940330106447</v>
+        <v>0.5695386386700341</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>2.0259740259740258</v>
+        <v>3.0</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>2.077283309200961</v>
+        <v>1.2460463791317595</v>
       </c>
     </row>
     <row r="19">
@@ -6852,61 +6846,52 @@
         <v>41</v>
       </c>
       <c r="G22" t="s" s="567">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="567">
         <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.45454545454545453</v>
+        <v>0.0</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.1038961038961039</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D23" t="n" s="570">
         <v>0.012987012987012988</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.15584415584415584</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.22077922077922077</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="G23" t="n" s="573">
-        <v>0.05194805194805195</v>
-      </c>
-      <c r="H23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.45454545454545453</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.03896103896103896</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.03896103896103896</v>
+        <v>0.025974025974025976</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.16883116883116883</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.09090909090909091</v>
+        <v>0.44155844155844154</v>
       </c>
       <c r="G24" t="n" s="573">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="H24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6936,7 +6921,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="576">
+      <c r="A1" t="s" s="575">
         <v>48</v>
       </c>
     </row>
@@ -6951,66 +6936,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="590">
+      <c r="A4" t="s" s="589">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="604">
+      <c r="A5" t="s" s="603">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="604">
+      <c r="B5" t="s" s="603">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="604">
+      <c r="C5" t="s" s="603">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="604">
+      <c r="D5" t="s" s="603">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="604">
+      <c r="E5" t="s" s="603">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="604">
+      <c r="F5" t="s" s="603">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="604">
+      <c r="G5" t="s" s="603">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="604">
+      <c r="H5" t="s" s="603">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="604">
+      <c r="I5" t="s" s="603">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="605">
-        <v>0.7195081967213115</v>
-      </c>
-      <c r="B6" t="n" s="606">
-        <v>0.7257401947780515</v>
-      </c>
-      <c r="C6" t="n" s="607">
-        <v>0.5695386386700343</v>
-      </c>
-      <c r="D6" t="n" s="608">
-        <v>0.5695386386700343</v>
-      </c>
-      <c r="E6" t="n" s="609">
-        <v>2.646177751751616</v>
-      </c>
-      <c r="F6" t="n" s="610">
-        <v>0.0626729837022672</v>
-      </c>
-      <c r="G6" t="n" s="611">
-        <v>3.1623376623376624</v>
-      </c>
-      <c r="H6" t="n" s="612">
-        <v>1.020969477485797</v>
-      </c>
-      <c r="I6" t="n" s="613">
-        <v>0.5695386386700343</v>
+      <c r="A6" t="n" s="604">
+        <v>0.8504288567735871</v>
+      </c>
+      <c r="B6" t="n" s="605">
+        <v>0.8513498627237177</v>
+      </c>
+      <c r="C6" t="n" s="606">
+        <v>0.7411742140583093</v>
+      </c>
+      <c r="D6" t="n" s="607">
+        <v>0.7411742140583093</v>
+      </c>
+      <c r="E6" t="n" s="608">
+        <v>5.727205358319932</v>
+      </c>
+      <c r="F6" t="n" s="609">
+        <v>0.03394854103459689</v>
+      </c>
+      <c r="G6" t="n" s="610">
+        <v>2.3506493506493507</v>
+      </c>
+      <c r="H6" t="n" s="611">
+        <v>1.2059745323992648</v>
+      </c>
+      <c r="I6" t="n" s="612">
+        <v>0.7411742140583094</v>
       </c>
     </row>
     <row r="7">
@@ -7024,81 +7009,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="617">
+      <c r="A9" t="s" s="616">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="631">
+      <c r="B10" t="s" s="630">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="631">
+      <c r="C10" t="s" s="630">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="631">
+      <c r="D10" t="s" s="630">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="631">
+      <c r="E10" t="s" s="630">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="631">
+      <c r="F10" t="s" s="630">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="631">
+      <c r="G10" t="s" s="630">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="631">
+      <c r="H10" t="s" s="630">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="631">
+      <c r="I10" t="s" s="630">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="627">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="632">
-        <v>0.5695386386700343</v>
-      </c>
-      <c r="C11" t="n" s="633">
-        <v>0.5695386386700343</v>
-      </c>
-      <c r="D11" t="n" s="634">
-        <v>0.3243742609381157</v>
-      </c>
-      <c r="E11" t="n" s="635">
-        <v>0.5695386386700343</v>
-      </c>
-      <c r="F11" s="636"/>
-      <c r="G11" s="637"/>
-      <c r="H11" t="n" s="638">
-        <v>0.5695386386700343</v>
-      </c>
-      <c r="I11" t="n" s="639">
-        <v>0.5695386386700343</v>
+      <c r="A11" t="s" s="626">
+        <v>28</v>
+      </c>
+      <c r="B11" t="n" s="631">
+        <v>0.7411742140583093</v>
+      </c>
+      <c r="C11" t="n" s="632">
+        <v>0.7411742140583093</v>
+      </c>
+      <c r="D11" t="n" s="633">
+        <v>0.5493392155849526</v>
+      </c>
+      <c r="E11" t="n" s="634">
+        <v>0.7411742140583093</v>
+      </c>
+      <c r="F11" s="635"/>
+      <c r="G11" s="636"/>
+      <c r="H11" t="n" s="637">
+        <v>0.7411742140583093</v>
+      </c>
+      <c r="I11" t="n" s="638">
+        <v>0.7411742140583093</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="627">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="632">
-        <v>0.3243742609381157</v>
-      </c>
-      <c r="C12" t="n" s="633">
-        <v>0.5695386386700343</v>
-      </c>
-      <c r="D12" s="634"/>
-      <c r="E12" s="635"/>
-      <c r="F12" s="636"/>
-      <c r="G12" s="637"/>
-      <c r="H12" t="n" s="638">
-        <v>0.3243742609381157</v>
-      </c>
-      <c r="I12" t="n" s="639">
-        <v>0.5695386386700343</v>
+      <c r="A12" t="s" s="626">
+        <v>29</v>
+      </c>
+      <c r="B12" t="n" s="631">
+        <v>0.5493392155849526</v>
+      </c>
+      <c r="C12" t="n" s="632">
+        <v>0.7411742140583093</v>
+      </c>
+      <c r="D12" s="633"/>
+      <c r="E12" s="634"/>
+      <c r="F12" s="635"/>
+      <c r="G12" s="636"/>
+      <c r="H12" t="n" s="637">
+        <v>0.5493392155849526</v>
+      </c>
+      <c r="I12" t="n" s="638">
+        <v>0.7411742140583093</v>
       </c>
     </row>
     <row r="13">
@@ -7112,84 +7097,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="643">
+      <c r="A15" t="s" s="642">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="657">
+      <c r="B16" t="s" s="656">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="657">
+      <c r="C16" t="s" s="656">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="657">
+      <c r="D16" t="s" s="656">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="657">
+      <c r="E16" t="s" s="656">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="657">
+      <c r="F16" t="s" s="656">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="657">
+      <c r="G16" t="s" s="656">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="657">
+      <c r="H16" t="s" s="656">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="653">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="658">
+      <c r="A17" t="s" s="652">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n" s="657">
         <v>77.0</v>
       </c>
-      <c r="C17" t="n" s="659">
-        <v>0.8651083636966281</v>
-      </c>
-      <c r="D17" t="n" s="660">
-        <v>0.8858720671378104</v>
-      </c>
-      <c r="E17" t="n" s="661">
-        <v>0.6685480160796792</v>
-      </c>
-      <c r="F17" t="n" s="662">
-        <v>0.5695386386700343</v>
-      </c>
-      <c r="G17" t="n" s="663">
-        <v>3.324675324675325</v>
-      </c>
-      <c r="H17" t="n" s="664">
-        <v>1.0568269096134508</v>
+      <c r="C17" t="n" s="658">
+        <v>0.9372437785761707</v>
+      </c>
+      <c r="D17" t="n" s="659">
+        <v>0.9330525746329382</v>
+      </c>
+      <c r="E17" t="n" s="660">
+        <v>0.8032787279777992</v>
+      </c>
+      <c r="F17" t="n" s="661">
+        <v>0.7411742140583095</v>
+      </c>
+      <c r="G17" t="n" s="662">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="H17" t="n" s="663">
+        <v>1.3320796110689346</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="653">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="658">
+      <c r="A18" t="s" s="652">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n" s="657">
         <v>77.0</v>
       </c>
-      <c r="C18" t="n" s="659">
-        <v>0.9049977395472976</v>
-      </c>
-      <c r="D18" t="n" s="660">
-        <v>0.8858720671378104</v>
-      </c>
-      <c r="E18" t="n" s="661">
-        <v>0.6685480160796794</v>
-      </c>
-      <c r="F18" t="n" s="662">
-        <v>0.5695386386700341</v>
-      </c>
-      <c r="G18" t="n" s="663">
-        <v>3.0</v>
-      </c>
-      <c r="H18" t="n" s="664">
-        <v>1.2460463791317595</v>
+      <c r="C18" t="n" s="658">
+        <v>0.9287307375911507</v>
+      </c>
+      <c r="D18" t="n" s="659">
+        <v>0.9330525746329382</v>
+      </c>
+      <c r="E18" t="n" s="660">
+        <v>0.8032787279777991</v>
+      </c>
+      <c r="F18" t="n" s="661">
+        <v>0.7411742140583092</v>
+      </c>
+      <c r="G18" t="n" s="662">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="H18" t="n" s="663">
+        <v>1.2527481751855087</v>
       </c>
     </row>
     <row r="19">
@@ -7203,74 +7188,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="668">
+      <c r="A21" t="s" s="667">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="682">
+      <c r="B22" t="s" s="681">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="682">
+      <c r="C22" t="s" s="681">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="682">
+      <c r="D22" t="s" s="681">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="682">
+      <c r="E22" t="s" s="681">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="682">
+      <c r="F22" t="s" s="681">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="682">
+      <c r="G22" t="s" s="681">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="678">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="683">
+      <c r="A23" t="s" s="677">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n" s="682">
+        <v>0.15584415584415584</v>
+      </c>
+      <c r="C23" t="n" s="683">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="D23" t="n" s="684">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E23" t="n" s="685">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F23" t="n" s="686">
+        <v>0.24675324675324675</v>
+      </c>
+      <c r="G23" t="n" s="687">
         <v>0.0</v>
       </c>
-      <c r="C23" t="n" s="684">
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="677">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n" s="682">
         <v>0.14285714285714285</v>
       </c>
-      <c r="D23" t="n" s="685">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="E23" t="n" s="686">
-        <v>0.22077922077922077</v>
-      </c>
-      <c r="F23" t="n" s="687">
-        <v>0.6233766233766234</v>
-      </c>
-      <c r="G23" t="n" s="688">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="678">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="683">
-        <v>0.07792207792207792</v>
-      </c>
-      <c r="C24" t="n" s="684">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D24" t="n" s="685">
-        <v>0.025974025974025976</v>
-      </c>
-      <c r="E24" t="n" s="686">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="F24" t="n" s="687">
-        <v>0.44155844155844154</v>
-      </c>
-      <c r="G24" t="n" s="688">
+      <c r="C24" t="n" s="683">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="D24" t="n" s="684">
+        <v>0.35064935064935066</v>
+      </c>
+      <c r="E24" t="n" s="685">
+        <v>0.2597402597402597</v>
+      </c>
+      <c r="F24" t="n" s="686">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G24" t="n" s="687">
         <v>0.0</v>
       </c>
     </row>
@@ -7300,7 +7285,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="690">
+      <c r="A1" t="s" s="689">
         <v>49</v>
       </c>
     </row>
@@ -7315,66 +7300,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="704">
+      <c r="A4" t="s" s="703">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="718">
+      <c r="A5" t="s" s="717">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="718">
+      <c r="B5" t="s" s="717">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="718">
+      <c r="C5" t="s" s="717">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="718">
+      <c r="D5" t="s" s="717">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="718">
+      <c r="E5" t="s" s="717">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="718">
+      <c r="F5" t="s" s="717">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="718">
+      <c r="G5" t="s" s="717">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="718">
+      <c r="H5" t="s" s="717">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="718">
+      <c r="I5" t="s" s="717">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="719">
-        <v>0.8082129108356976</v>
-      </c>
-      <c r="B6" t="n" s="720">
-        <v>0.8155704333122563</v>
-      </c>
-      <c r="C6" t="n" s="721">
-        <v>0.8908148447508729</v>
-      </c>
-      <c r="D6" t="n" s="722">
-        <v>0.3066208608223145</v>
-      </c>
-      <c r="E6" t="n" s="723">
-        <v>4.422124109270898</v>
-      </c>
-      <c r="F6" t="n" s="724">
-        <v>0.0315095258536166</v>
-      </c>
-      <c r="G6" t="n" s="725">
-        <v>2.9753246753246754</v>
-      </c>
-      <c r="H6" t="n" s="726">
-        <v>0.8179170985136646</v>
-      </c>
-      <c r="I6" t="n" s="727">
-        <v>0.22985795305335324</v>
+      <c r="A6" t="n" s="718">
+        <v>0.7958650851920303</v>
+      </c>
+      <c r="B6" t="n" s="719">
+        <v>0.8054367928966071</v>
+      </c>
+      <c r="C6" t="n" s="720">
+        <v>0.886068865433484</v>
+      </c>
+      <c r="D6" t="n" s="721">
+        <v>0.31505378865315226</v>
+      </c>
+      <c r="E6" t="n" s="722">
+        <v>4.139717909093622</v>
+      </c>
+      <c r="F6" t="n" s="723">
+        <v>0.030487408521291372</v>
+      </c>
+      <c r="G6" t="n" s="724">
+        <v>2.5613275613275612</v>
+      </c>
+      <c r="H6" t="n" s="725">
+        <v>0.8164759103898579</v>
+      </c>
+      <c r="I6" t="n" s="726">
+        <v>0.22055822573781814</v>
       </c>
     </row>
     <row r="7">
@@ -7388,325 +7373,301 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="731">
+      <c r="A9" t="s" s="730">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="745">
+      <c r="B10" t="s" s="744">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="745">
+      <c r="C10" t="s" s="744">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="745">
+      <c r="D10" t="s" s="744">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="745">
+      <c r="E10" t="s" s="744">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="745">
+      <c r="F10" t="s" s="744">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="745">
+      <c r="G10" t="s" s="744">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="745">
+      <c r="H10" t="s" s="744">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="745">
+      <c r="I10" t="s" s="744">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="741">
+      <c r="A11" t="s" s="740">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n" s="745">
+        <v>0.7788148157040219</v>
+      </c>
+      <c r="C11" t="n" s="746">
+        <v>0.773606795082737</v>
+      </c>
+      <c r="D11" t="n" s="747">
+        <v>0.8555201737668745</v>
+      </c>
+      <c r="E11" t="n" s="748">
+        <v>0.2992962826074587</v>
+      </c>
+      <c r="F11" t="n" s="749">
+        <v>3.4170937036977636</v>
+      </c>
+      <c r="G11" t="n" s="750">
+        <v>0.03466968014978617</v>
+      </c>
+      <c r="H11" t="n" s="751">
+        <v>0.043699608231053004</v>
+      </c>
+      <c r="I11" t="n" s="752">
+        <v>0.22055822573781814</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="740">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n" s="745">
+        <v>0.7346054138953081</v>
+      </c>
+      <c r="C12" t="n" s="746">
+        <v>0.7587402027452613</v>
+      </c>
+      <c r="D12" t="n" s="747">
+        <v>0.849415333123421</v>
+      </c>
+      <c r="E12" t="n" s="748">
+        <v>0.2821834868919508</v>
+      </c>
+      <c r="F12" t="n" s="749">
+        <v>3.144909393852021</v>
+      </c>
+      <c r="G12" t="n" s="750">
+        <v>0.04200992600225442</v>
+      </c>
+      <c r="H12" t="n" s="751">
+        <v>0.04612499925320653</v>
+      </c>
+      <c r="I12" t="n" s="752">
+        <v>0.22055822573781814</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="740">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n" s="745">
+        <v>0.740044479879149</v>
+      </c>
+      <c r="C13" t="n" s="746">
+        <v>0.7580564630569977</v>
+      </c>
+      <c r="D13" t="n" s="747">
+        <v>0.8422867708361305</v>
+      </c>
+      <c r="E13" t="n" s="748">
+        <v>0.2814282461583977</v>
+      </c>
+      <c r="F13" t="n" s="749">
+        <v>3.133195755650969</v>
+      </c>
+      <c r="G13" t="n" s="750">
+        <v>0.04206033554526763</v>
+      </c>
+      <c r="H13" t="n" s="751">
+        <v>0.044739380969931124</v>
+      </c>
+      <c r="I13" t="n" s="752">
+        <v>0.20774030047949105</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="740">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="746">
-        <v>0.7996338755937724</v>
-      </c>
-      <c r="C11" t="n" s="747">
-        <v>0.8012362936869519</v>
-      </c>
-      <c r="D11" t="n" s="748">
-        <v>0.8810163350466167</v>
-      </c>
-      <c r="E11" t="n" s="749">
-        <v>0.3093445459079014</v>
-      </c>
-      <c r="F11" t="n" s="750">
-        <v>4.0310995832660925</v>
-      </c>
-      <c r="G11" t="n" s="751">
-        <v>0.032906150375061574</v>
-      </c>
-      <c r="H11" t="n" s="752">
-        <v>0.040421399135595164</v>
-      </c>
-      <c r="I11" t="n" s="753">
+      <c r="B14" t="n" s="745">
+        <v>0.794747793444983</v>
+      </c>
+      <c r="C14" t="n" s="746">
+        <v>0.8058428770633407</v>
+      </c>
+      <c r="D14" t="n" s="747">
+        <v>0.8767248029726848</v>
+      </c>
+      <c r="E14" t="n" s="748">
+        <v>0.3415891334388902</v>
+      </c>
+      <c r="F14" t="n" s="749">
+        <v>4.150467749391994</v>
+      </c>
+      <c r="G14" t="n" s="750">
+        <v>0.030461803347281876</v>
+      </c>
+      <c r="H14" t="n" s="751">
+        <v>0.06702971125953527</v>
+      </c>
+      <c r="I14" t="n" s="752">
         <v>0.22930605171369917</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="741">
+    <row r="15">
+      <c r="A15" t="s" s="740">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="746">
-        <v>0.7998381568926124</v>
-      </c>
-      <c r="C12" t="n" s="747">
-        <v>0.8013173305473579</v>
-      </c>
-      <c r="D12" t="n" s="748">
-        <v>0.8777566945410602</v>
-      </c>
-      <c r="E12" t="n" s="749">
-        <v>0.30945328796194566</v>
-      </c>
-      <c r="F12" t="n" s="750">
-        <v>4.033151621905097</v>
-      </c>
-      <c r="G12" t="n" s="751">
-        <v>0.03220787538067169</v>
-      </c>
-      <c r="H12" t="n" s="752">
-        <v>0.03752483954410471</v>
-      </c>
-      <c r="I12" t="n" s="753">
-        <v>0.23172744830083564</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="741">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n" s="746">
-        <v>0.792717862729298</v>
-      </c>
-      <c r="C13" t="n" s="747">
-        <v>0.7958202144104631</v>
-      </c>
-      <c r="D13" t="n" s="748">
-        <v>0.8758035271112841</v>
-      </c>
-      <c r="E13" t="n" s="749">
-        <v>0.3021981639095818</v>
-      </c>
-      <c r="F13" t="n" s="750">
-        <v>3.897644480880699</v>
-      </c>
-      <c r="G13" t="n" s="751">
-        <v>0.03365327459030925</v>
-      </c>
-      <c r="H13" t="n" s="752">
-        <v>0.04043236566150733</v>
-      </c>
-      <c r="I13" t="n" s="753">
-        <v>0.2224971483166906</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="741">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="746">
-        <v>0.7901391959860044</v>
-      </c>
-      <c r="C14" t="n" s="747">
-        <v>0.790640172593122</v>
-      </c>
-      <c r="D14" t="n" s="748">
-        <v>0.8676292221598397</v>
-      </c>
-      <c r="E14" t="n" s="749">
-        <v>0.2955798318853519</v>
-      </c>
-      <c r="F14" t="n" s="750">
-        <v>3.776465534892526</v>
-      </c>
-      <c r="G14" t="n" s="751">
-        <v>0.03335673213828804</v>
-      </c>
-      <c r="H14" t="n" s="752">
-        <v>0.03796413557322493</v>
-      </c>
-      <c r="I14" t="n" s="753">
-        <v>0.22930605171369917</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="741">
+      <c r="B15" t="n" s="745">
+        <v>0.8020027851727243</v>
+      </c>
+      <c r="C15" t="n" s="746">
+        <v>0.8134959480690886</v>
+      </c>
+      <c r="D15" t="n" s="747">
+        <v>0.879189811160835</v>
+      </c>
+      <c r="E15" t="n" s="748">
+        <v>0.3528457775415736</v>
+      </c>
+      <c r="F15" t="n" s="749">
+        <v>4.361813803222037</v>
+      </c>
+      <c r="G15" t="n" s="750">
+        <v>0.028801115922952942</v>
+      </c>
+      <c r="H15" t="n" s="751">
+        <v>0.06240185997329329</v>
+      </c>
+      <c r="I15" t="n" s="752">
+        <v>0.2530234443018823</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="740">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n" s="745">
+        <v>0.7905400279271759</v>
+      </c>
+      <c r="C16" t="n" s="746">
+        <v>0.8018365444619331</v>
+      </c>
+      <c r="D16" t="n" s="747">
+        <v>0.8802381568421044</v>
+      </c>
+      <c r="E16" t="n" s="748">
+        <v>0.33589782646362626</v>
+      </c>
+      <c r="F16" t="n" s="749">
+        <v>4.046339130919634</v>
+      </c>
+      <c r="G16" t="n" s="750">
+        <v>0.030498265045598168</v>
+      </c>
+      <c r="H16" t="n" s="751">
+        <v>0.0696932429546283</v>
+      </c>
+      <c r="I16" t="n" s="752">
+        <v>0.23660105575634122</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="740">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="745">
+        <v>0.7889219586547729</v>
+      </c>
+      <c r="C17" t="n" s="746">
+        <v>0.7977327112056253</v>
+      </c>
+      <c r="D17" t="n" s="747">
+        <v>0.8774940281382165</v>
+      </c>
+      <c r="E17" t="n" s="748">
+        <v>0.33020500849846696</v>
+      </c>
+      <c r="F17" t="n" s="749">
+        <v>3.943953152091746</v>
+      </c>
+      <c r="G17" t="n" s="750">
+        <v>0.03008335058058518</v>
+      </c>
+      <c r="H17" t="n" s="751">
+        <v>0.07139970846176985</v>
+      </c>
+      <c r="I17" t="n" s="752">
+        <v>0.2109196053699689</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="740">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="746">
-        <v>0.780926386834202</v>
-      </c>
-      <c r="C15" t="n" s="747">
-        <v>0.7947546569274074</v>
-      </c>
-      <c r="D15" t="n" s="748">
-        <v>0.869141463816838</v>
-      </c>
-      <c r="E15" t="n" s="749">
-        <v>0.3008197820191174</v>
-      </c>
-      <c r="F15" t="n" s="750">
-        <v>3.872217732347347</v>
-      </c>
-      <c r="G15" t="n" s="751">
-        <v>0.036448200417490584</v>
-      </c>
-      <c r="H15" t="n" s="752">
-        <v>0.03851954061277755</v>
-      </c>
-      <c r="I15" t="n" s="753">
-        <v>0.22522050301059657</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="741">
+      <c r="B18" t="n" s="745">
+        <v>0.7631847712812161</v>
+      </c>
+      <c r="C18" t="n" s="746">
+        <v>0.7785640854528376</v>
+      </c>
+      <c r="D18" t="n" s="747">
+        <v>0.8602370810809583</v>
+      </c>
+      <c r="E18" t="n" s="748">
+        <v>0.30531309482392127</v>
+      </c>
+      <c r="F18" t="n" s="749">
+        <v>3.5159792712261955</v>
+      </c>
+      <c r="G18" t="n" s="750">
+        <v>0.03526085252984172</v>
+      </c>
+      <c r="H18" t="n" s="751">
+        <v>0.06432225119156763</v>
+      </c>
+      <c r="I18" t="n" s="752">
+        <v>0.2109196053699689</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="740">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="746">
-        <v>0.7854664187186327</v>
-      </c>
-      <c r="C16" t="n" s="747">
-        <v>0.7992901505284946</v>
-      </c>
-      <c r="D16" t="n" s="748">
-        <v>0.8702265763076573</v>
-      </c>
-      <c r="E16" t="n" s="749">
-        <v>0.30674930149695245</v>
-      </c>
-      <c r="F16" t="n" s="750">
-        <v>3.982316526234897</v>
-      </c>
-      <c r="G16" t="n" s="751">
-        <v>0.03574394123530966</v>
-      </c>
-      <c r="H16" t="n" s="752">
-        <v>0.03770488967066516</v>
-      </c>
-      <c r="I16" t="n" s="753">
-        <v>0.22930605171369917</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="741">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="746">
-        <v>0.7743978628980137</v>
-      </c>
-      <c r="C17" t="n" s="747">
-        <v>0.7950695549221456</v>
-      </c>
-      <c r="D17" t="n" s="748">
-        <v>0.8515779482523644</v>
-      </c>
-      <c r="E17" t="n" s="749">
-        <v>0.3012262003944996</v>
-      </c>
-      <c r="F17" t="n" s="750">
-        <v>3.8797044266414087</v>
-      </c>
-      <c r="G17" t="n" s="751">
-        <v>0.03832049335544218</v>
-      </c>
-      <c r="H17" t="n" s="752">
-        <v>0.03294068577589026</v>
-      </c>
-      <c r="I17" t="n" s="753">
-        <v>0.2314935753138614</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="741">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="746">
-        <v>0.7790995856259766</v>
-      </c>
-      <c r="C18" t="n" s="747">
-        <v>0.7940649802502799</v>
-      </c>
-      <c r="D18" t="n" s="748">
-        <v>0.851655944655499</v>
-      </c>
-      <c r="E18" t="n" s="749">
-        <v>0.2999323631761668</v>
-      </c>
-      <c r="F18" t="n" s="750">
-        <v>3.855900668158986</v>
-      </c>
-      <c r="G18" t="n" s="751">
-        <v>0.03794790324895524</v>
-      </c>
-      <c r="H18" t="n" s="752">
-        <v>0.03314325058713337</v>
-      </c>
-      <c r="I18" t="n" s="753">
-        <v>0.2260062773372249</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="741">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="746">
-        <v>0.8032080271339739</v>
-      </c>
-      <c r="C19" t="n" s="747">
-        <v>0.8117514045180573</v>
-      </c>
-      <c r="D19" t="n" s="748">
-        <v>0.8842994512239777</v>
-      </c>
-      <c r="E19" t="n" s="749">
-        <v>0.32392459863593015</v>
-      </c>
-      <c r="F19" t="n" s="750">
-        <v>4.312124626693016</v>
-      </c>
-      <c r="G19" t="n" s="751">
-        <v>0.03250288928006958</v>
-      </c>
-      <c r="H19" t="n" s="752">
-        <v>0.04269329484277505</v>
-      </c>
-      <c r="I19" t="n" s="753">
-        <v>0.23878857935650344</v>
+      <c r="B19" t="n" s="745">
+        <v>0.7653025596844039</v>
+      </c>
+      <c r="C19" t="n" s="746">
+        <v>0.7797083367210309</v>
+      </c>
+      <c r="D19" t="n" s="747">
+        <v>0.8588428045885033</v>
+      </c>
+      <c r="E19" t="n" s="748">
+        <v>0.30672524145408486</v>
+      </c>
+      <c r="F19" t="n" s="749">
+        <v>3.539436423127996</v>
+      </c>
+      <c r="G19" t="n" s="750">
+        <v>0.0349302248983888</v>
+      </c>
+      <c r="H19" t="n" s="751">
+        <v>0.06414015319887359</v>
+      </c>
+      <c r="I19" t="n" s="752">
+        <v>0.2109196053699689</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="741">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="746">
-        <v>0.8003691312854281</v>
-      </c>
-      <c r="C20" t="n" s="747">
-        <v>0.8068298781220844</v>
-      </c>
-      <c r="D20" t="n" s="748">
-        <v>0.8822930245502356</v>
-      </c>
-      <c r="E20" t="n" s="749">
-        <v>0.3169805328356976</v>
-      </c>
-      <c r="F20" t="n" s="750">
-        <v>4.176784019590795</v>
-      </c>
-      <c r="G20" t="n" s="751">
-        <v>0.032601584682581</v>
-      </c>
-      <c r="H20" t="n" s="752">
-        <v>0.044526501456835996</v>
-      </c>
-      <c r="I20" t="n" s="753">
-        <v>0.2300918260403275</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7715,595 +7676,538 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="756">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="770">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="770">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="770">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="770">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="770">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="770">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="770">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="766">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="771">
+        <v>77.0</v>
+      </c>
+      <c r="C24" t="n" s="772">
+        <v>0.7388950034606123</v>
+      </c>
+      <c r="D24" t="n" s="773">
+        <v>0.7038108052568597</v>
+      </c>
+      <c r="E24" t="n" s="774">
+        <v>0.7171283765609487</v>
+      </c>
+      <c r="F24" t="n" s="775">
+        <v>0.7054580660211847</v>
+      </c>
+      <c r="G24" t="n" s="776">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="H24" t="n" s="777">
+        <v>0.5011947448335864</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="766">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="771">
+        <v>77.0</v>
+      </c>
+      <c r="C25" t="n" s="772">
+        <v>0.8374352276427074</v>
+      </c>
+      <c r="D25" t="n" s="773">
+        <v>0.7889363427068586</v>
+      </c>
+      <c r="E25" t="n" s="774">
+        <v>0.8130968798321012</v>
+      </c>
+      <c r="F25" t="n" s="775">
+        <v>0.7314809229937782</v>
+      </c>
+      <c r="G25" t="n" s="776">
+        <v>1.7402597402597402</v>
+      </c>
+      <c r="H25" t="n" s="777">
+        <v>1.8453540339443455</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="766">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="771">
+        <v>77.0</v>
+      </c>
+      <c r="C26" t="n" s="772">
+        <v>0.8429416380536856</v>
+      </c>
+      <c r="D26" t="n" s="773">
+        <v>0.7926931966082686</v>
+      </c>
+      <c r="E26" t="n" s="774">
+        <v>0.8234466110673598</v>
+      </c>
+      <c r="F26" t="n" s="775">
+        <v>0.7212824320845902</v>
+      </c>
+      <c r="G26" t="n" s="776">
+        <v>2.0259740259740258</v>
+      </c>
+      <c r="H26" t="n" s="777">
+        <v>2.077283309200961</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="766">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n" s="771">
+        <v>77.0</v>
+      </c>
+      <c r="C27" t="n" s="772">
+        <v>0.4170793561388169</v>
+      </c>
+      <c r="D27" t="n" s="773">
+        <v>0.49343012186824975</v>
+      </c>
+      <c r="E27" t="n" s="774">
+        <v>0.4148061035131406</v>
+      </c>
+      <c r="F27" t="n" s="775">
+        <v>0.31679536069635006</v>
+      </c>
+      <c r="G27" t="n" s="776">
+        <v>3.675324675324675</v>
+      </c>
+      <c r="H27" t="n" s="777">
+        <v>0.83416454330316</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="766">
+        <v>19</v>
+      </c>
+      <c r="B28" t="n" s="771">
+        <v>77.0</v>
+      </c>
+      <c r="C28" t="n" s="772">
+        <v>0.37926469748248154</v>
+      </c>
+      <c r="D28" t="n" s="773">
+        <v>0.4374353040106442</v>
+      </c>
+      <c r="E28" t="n" s="774">
+        <v>0.35623926064750444</v>
+      </c>
+      <c r="F28" t="n" s="775">
+        <v>0.24659785412120178</v>
+      </c>
+      <c r="G28" t="n" s="776">
+        <v>4.038961038961039</v>
+      </c>
+      <c r="H28" t="n" s="777">
+        <v>1.0568269096134508</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="766">
+        <v>26</v>
+      </c>
+      <c r="B29" t="n" s="771">
+        <v>77.0</v>
+      </c>
+      <c r="C29" t="n" s="772">
+        <v>0.4823764619523649</v>
+      </c>
+      <c r="D29" t="n" s="773">
+        <v>0.5217408417013178</v>
+      </c>
+      <c r="E29" t="n" s="774">
+        <v>0.4352582147179025</v>
+      </c>
+      <c r="F29" t="n" s="775">
+        <v>0.36050698900751044</v>
+      </c>
+      <c r="G29" t="n" s="776">
+        <v>3.324675324675325</v>
+      </c>
+      <c r="H29" t="n" s="777">
+        <v>1.0568269096134508</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="766">
+        <v>27</v>
+      </c>
+      <c r="B30" t="n" s="771">
+        <v>77.0</v>
+      </c>
+      <c r="C30" t="n" s="772">
+        <v>0.5216424669748568</v>
+      </c>
+      <c r="D30" t="n" s="773">
+        <v>0.5500590777713036</v>
+      </c>
+      <c r="E30" t="n" s="774">
+        <v>0.4676185009627937</v>
+      </c>
+      <c r="F30" t="n" s="775">
+        <v>0.38146287332258744</v>
+      </c>
+      <c r="G30" t="n" s="776">
+        <v>3.0</v>
+      </c>
+      <c r="H30" t="n" s="777">
+        <v>1.2460463791317595</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="766">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n" s="771">
+        <v>77.0</v>
+      </c>
+      <c r="C31" t="n" s="772">
+        <v>0.6926573450462336</v>
+      </c>
+      <c r="D31" t="n" s="773">
+        <v>0.6738808988770422</v>
+      </c>
+      <c r="E31" t="n" s="774">
+        <v>0.6385472044161706</v>
+      </c>
+      <c r="F31" t="n" s="775">
+        <v>0.5783805701601029</v>
+      </c>
+      <c r="G31" t="n" s="776">
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="H31" t="n" s="777">
+        <v>1.3320796110689346</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="766">
+        <v>29</v>
+      </c>
+      <c r="B32" t="n" s="771">
+        <v>77.0</v>
+      </c>
+      <c r="C32" t="n" s="772">
+        <v>0.6788084297013127</v>
+      </c>
+      <c r="D32" t="n" s="773">
+        <v>0.6668563458554725</v>
+      </c>
+      <c r="E32" t="n" s="774">
+        <v>0.6323579951533453</v>
+      </c>
+      <c r="F32" t="n" s="775">
+        <v>0.5691755201842977</v>
+      </c>
+      <c r="G32" t="n" s="776">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="H32" t="n" s="777">
+        <v>1.2527481751855087</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="757">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="771">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="771">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="771">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="771">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="771">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="771">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="771">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="767">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="781">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" t="s" s="795">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="795">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="795">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="795">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="795">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="795">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="795">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="791">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="796">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="C37" t="n" s="797">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="791">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="796">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="C38" t="n" s="797">
+        <v>0.1038961038961039</v>
+      </c>
+      <c r="D38" t="n" s="798">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="E38" t="n" s="799">
+        <v>0.15584415584415584</v>
+      </c>
+      <c r="F38" t="n" s="800">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="G38" t="n" s="801">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="H38" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="791">
+        <v>22</v>
+      </c>
+      <c r="B39" t="n" s="796">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="C39" t="n" s="797">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="D39" t="n" s="798">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="E39" t="n" s="799">
+        <v>0.16883116883116883</v>
+      </c>
+      <c r="F39" t="n" s="800">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G39" t="n" s="801">
+        <v>0.2077922077922078</v>
+      </c>
+      <c r="H39" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="791">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="772">
-        <v>77.0</v>
-      </c>
-      <c r="C25" t="n" s="773">
-        <v>0.5088051471864657</v>
-      </c>
-      <c r="D25" t="n" s="774">
-        <v>0.5971632693730474</v>
-      </c>
-      <c r="E25" t="n" s="775">
-        <v>0.5422566476797568</v>
-      </c>
-      <c r="F25" t="n" s="776">
-        <v>0.42725638134708577</v>
-      </c>
-      <c r="G25" t="n" s="777">
-        <v>3.675324675324675</v>
-      </c>
-      <c r="H25" t="n" s="778">
-        <v>0.83416454330316</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="767">
+      <c r="B40" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n" s="797">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="D40" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="799">
+        <v>0.3246753246753247</v>
+      </c>
+      <c r="F40" t="n" s="800">
+        <v>0.5194805194805194</v>
+      </c>
+      <c r="G40" t="n" s="801">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="H40" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="791">
         <v>19</v>
       </c>
-      <c r="B26" t="n" s="772">
-        <v>77.0</v>
-      </c>
-      <c r="C26" t="n" s="773">
-        <v>0.5080212246776503</v>
-      </c>
-      <c r="D26" t="n" s="774">
-        <v>0.5965248149203174</v>
-      </c>
-      <c r="E26" t="n" s="775">
-        <v>0.5514238875881688</v>
-      </c>
-      <c r="F26" t="n" s="776">
-        <v>0.4025784167870509</v>
-      </c>
-      <c r="G26" t="n" s="777">
-        <v>4.038961038961039</v>
-      </c>
-      <c r="H26" t="n" s="778">
-        <v>1.0568269096134508</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="767">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="772">
-        <v>77.0</v>
-      </c>
-      <c r="C27" t="n" s="773">
-        <v>0.5812858635806206</v>
-      </c>
-      <c r="D27" t="n" s="774">
-        <v>0.639121640012976</v>
-      </c>
-      <c r="E27" t="n" s="775">
-        <v>0.5973917236010293</v>
-      </c>
-      <c r="F27" t="n" s="776">
-        <v>0.4817573926845437</v>
-      </c>
-      <c r="G27" t="n" s="777">
-        <v>3.5194805194805197</v>
-      </c>
-      <c r="H27" t="n" s="778">
-        <v>1.0955699022881775</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="767">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="772">
-        <v>77.0</v>
-      </c>
-      <c r="C28" t="n" s="773">
-        <v>0.6072266786701432</v>
-      </c>
-      <c r="D28" t="n" s="774">
-        <v>0.6779796842871335</v>
-      </c>
-      <c r="E28" t="n" s="775">
-        <v>0.6550358819170399</v>
-      </c>
-      <c r="F28" t="n" s="776">
-        <v>0.4993818157283466</v>
-      </c>
-      <c r="G28" t="n" s="777">
-        <v>3.727272727272727</v>
-      </c>
-      <c r="H28" t="n" s="778">
-        <v>1.2208319384786628</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="767">
+      <c r="B41" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="797">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="D41" t="n" s="798">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="E41" t="n" s="799">
+        <v>0.33766233766233766</v>
+      </c>
+      <c r="F41" t="n" s="800">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="G41" t="n" s="801">
+        <v>0.4935064935064935</v>
+      </c>
+      <c r="H41" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="791">
+        <v>26</v>
+      </c>
+      <c r="B42" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C42" t="n" s="797">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D42" t="n" s="798">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="E42" t="n" s="799">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="F42" t="n" s="800">
+        <v>0.6233766233766234</v>
+      </c>
+      <c r="G42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="791">
+        <v>27</v>
+      </c>
+      <c r="B43" t="n" s="796">
+        <v>0.07792207792207792</v>
+      </c>
+      <c r="C43" t="n" s="797">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D43" t="n" s="798">
+        <v>0.025974025974025976</v>
+      </c>
+      <c r="E43" t="n" s="799">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="F43" t="n" s="800">
+        <v>0.44155844155844154</v>
+      </c>
+      <c r="G43" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="791">
         <v>28</v>
       </c>
-      <c r="B29" t="n" s="772">
-        <v>77.0</v>
-      </c>
-      <c r="C29" t="n" s="773">
-        <v>0.681296304521065</v>
-      </c>
-      <c r="D29" t="n" s="774">
-        <v>0.647214498505157</v>
-      </c>
-      <c r="E29" t="n" s="775">
-        <v>0.6192089294834348</v>
-      </c>
-      <c r="F29" t="n" s="776">
-        <v>0.5779641803199452</v>
-      </c>
-      <c r="G29" t="n" s="777">
-        <v>2.4285714285714284</v>
-      </c>
-      <c r="H29" t="n" s="778">
-        <v>1.3320796110689346</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="767">
+      <c r="B44" t="n" s="796">
+        <v>0.15584415584415584</v>
+      </c>
+      <c r="C44" t="n" s="797">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="D44" t="n" s="798">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E44" t="n" s="799">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F44" t="n" s="800">
+        <v>0.24675324675324675</v>
+      </c>
+      <c r="G44" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H44" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="791">
         <v>29</v>
       </c>
-      <c r="B30" t="n" s="772">
-        <v>77.0</v>
-      </c>
-      <c r="C30" t="n" s="773">
-        <v>0.6461573396213297</v>
-      </c>
-      <c r="D30" t="n" s="774">
-        <v>0.6124006617936321</v>
-      </c>
-      <c r="E30" t="n" s="775">
-        <v>0.5819283949215394</v>
-      </c>
-      <c r="F30" t="n" s="776">
-        <v>0.5425964077488259</v>
-      </c>
-      <c r="G30" t="n" s="777">
-        <v>2.272727272727273</v>
-      </c>
-      <c r="H30" t="n" s="778">
-        <v>1.2527481751855087</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="767">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="772">
-        <v>77.0</v>
-      </c>
-      <c r="C31" t="n" s="773">
-        <v>0.7523863264691628</v>
-      </c>
-      <c r="D31" t="n" s="774">
-        <v>0.6448283046474578</v>
-      </c>
-      <c r="E31" t="n" s="775">
-        <v>0.6596770396227717</v>
-      </c>
-      <c r="F31" t="n" s="776">
-        <v>0.624544934524611</v>
-      </c>
-      <c r="G31" t="n" s="777">
-        <v>1.7402597402597402</v>
-      </c>
-      <c r="H31" t="n" s="778">
-        <v>1.8453540339443455</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="767">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="772">
-        <v>77.0</v>
-      </c>
-      <c r="C32" t="n" s="773">
-        <v>0.7631943664545938</v>
-      </c>
-      <c r="D32" t="n" s="774">
-        <v>0.6524247781591325</v>
-      </c>
-      <c r="E32" t="n" s="775">
-        <v>0.6675230599465385</v>
-      </c>
-      <c r="F32" t="n" s="776">
-        <v>0.6189615991314529</v>
-      </c>
-      <c r="G32" t="n" s="777">
-        <v>2.0259740259740258</v>
-      </c>
-      <c r="H32" t="n" s="778">
-        <v>2.077283309200961</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="767">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="772">
-        <v>77.0</v>
-      </c>
-      <c r="C33" t="n" s="773">
-        <v>0.4721406688838167</v>
-      </c>
-      <c r="D33" t="n" s="774">
-        <v>0.5115597770805587</v>
-      </c>
-      <c r="E33" t="n" s="775">
-        <v>0.43402322173575164</v>
-      </c>
-      <c r="F33" t="n" s="776">
-        <v>0.36255328552596194</v>
-      </c>
-      <c r="G33" t="n" s="777">
-        <v>3.324675324675325</v>
-      </c>
-      <c r="H33" t="n" s="778">
-        <v>1.0568269096134508</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="767">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="772">
-        <v>77.0</v>
-      </c>
-      <c r="C34" t="n" s="773">
-        <v>0.5215840210477511</v>
-      </c>
-      <c r="D34" t="n" s="774">
-        <v>0.5523302937787594</v>
-      </c>
-      <c r="E34" t="n" s="775">
-        <v>0.4786691723988108</v>
-      </c>
-      <c r="F34" t="n" s="776">
-        <v>0.3971728930945204</v>
-      </c>
-      <c r="G34" t="n" s="777">
-        <v>3.0</v>
-      </c>
-      <c r="H34" t="n" s="778">
-        <v>1.2460463791317595</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="782">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="796">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="796">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="796">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="796">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="796">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="796">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="796">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="792">
-        <v>18</v>
-      </c>
-      <c r="B39" t="n" s="797">
+      <c r="B45" t="n" s="796">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C45" t="n" s="797">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="D45" t="n" s="798">
+        <v>0.35064935064935066</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.2597402597402597</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G45" t="n" s="801">
         <v>0.0</v>
       </c>
-      <c r="C39" t="n" s="798">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="D39" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="800">
-        <v>0.3246753246753247</v>
-      </c>
-      <c r="F39" t="n" s="801">
-        <v>0.5194805194805194</v>
-      </c>
-      <c r="G39" t="n" s="802">
-        <v>0.11688311688311688</v>
-      </c>
-      <c r="H39" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="792">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="C40" t="n" s="798">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="D40" t="n" s="799">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="E40" t="n" s="800">
-        <v>0.33766233766233766</v>
-      </c>
-      <c r="F40" t="n" s="801">
-        <v>0.11688311688311688</v>
-      </c>
-      <c r="G40" t="n" s="802">
-        <v>0.4935064935064935</v>
-      </c>
-      <c r="H40" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="792">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="797">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="C41" t="n" s="798">
-        <v>0.07792207792207792</v>
-      </c>
-      <c r="D41" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="E41" t="n" s="800">
-        <v>0.35064935064935066</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.4025974025974026</v>
-      </c>
-      <c r="G41" t="n" s="802">
-        <v>0.15584415584415584</v>
-      </c>
-      <c r="H41" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="792">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="797">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="C42" t="n" s="798">
-        <v>0.025974025974025976</v>
-      </c>
-      <c r="D42" t="n" s="799">
-        <v>0.07792207792207792</v>
-      </c>
-      <c r="E42" t="n" s="800">
-        <v>0.38961038961038963</v>
-      </c>
-      <c r="F42" t="n" s="801">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="G42" t="n" s="802">
-        <v>0.4025974025974026</v>
-      </c>
-      <c r="H42" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="792">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="797">
-        <v>0.15584415584415584</v>
-      </c>
-      <c r="C43" t="n" s="798">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="D43" t="n" s="799">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="E43" t="n" s="800">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F43" t="n" s="801">
-        <v>0.24675324675324675</v>
-      </c>
-      <c r="G43" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="792">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="797">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="C44" t="n" s="798">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="D44" t="n" s="799">
-        <v>0.35064935064935066</v>
-      </c>
-      <c r="E44" t="n" s="800">
-        <v>0.2597402597402597</v>
-      </c>
-      <c r="F44" t="n" s="801">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="G44" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="792">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="797">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="C45" t="n" s="798">
-        <v>0.1038961038961039</v>
-      </c>
-      <c r="D45" t="n" s="799">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.15584415584415584</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.22077922077922077</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.05194805194805195</v>
-      </c>
-      <c r="H45" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="792">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="797">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="C46" t="n" s="798">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.16883116883116883</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="H46" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="792">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="C47" t="n" s="798">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D47" t="n" s="799">
-        <v>0.012987012987012988</v>
-      </c>
-      <c r="E47" t="n" s="800">
-        <v>0.22077922077922077</v>
-      </c>
-      <c r="F47" t="n" s="801">
-        <v>0.6233766233766234</v>
-      </c>
-      <c r="G47" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="792">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="797">
-        <v>0.07792207792207792</v>
-      </c>
-      <c r="C48" t="n" s="798">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D48" t="n" s="799">
-        <v>0.025974025974025976</v>
-      </c>
-      <c r="E48" t="n" s="800">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="F48" t="n" s="801">
-        <v>0.44155844155844154</v>
-      </c>
-      <c r="G48" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="803">
+      <c r="H45" t="n" s="802">
         <v>0.0</v>
       </c>
     </row>
